--- a/Proyectos/2015/12/P1411 - RNCFACMU, Cristina Torres Hernandez_MO/Calidad/Encuesta_satisfaccion.xlsx
+++ b/Proyectos/2015/12/P1411 - RNCFACMU, Cristina Torres Hernandez_MO/Calidad/Encuesta_satisfaccion.xlsx
@@ -16772,7 +16772,7 @@
   <dimension ref="A1:BR97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16945,8 +16945,7 @@
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A4" s="28">
-        <f>'Inf. Gral.'!C6</f>
-        <v>42396</v>
+        <v>42405</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
